--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工具命令行设计" sheetId="6" r:id="rId1"/>
@@ -667,22 +667,6 @@
     <t>UTF-8/GB18030/GBK等所有Java默认带的编码格式
 注：
 Google的protobuf库的代码里写死了UTF-8(2.6.0版本)，故而该选项对Protobuf无效</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>role_cfg.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>lua</t>
-    </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -710,6 +694,10 @@
     </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
+  <si>
+    <t>role_cfg.bin</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -718,9 +706,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="181" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="182" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1525,6 +1513,21 @@
     <xf numFmtId="176" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1539,21 +1542,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -2068,8 +2056,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="38" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2097,8 +2085,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="38" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2149,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2188,8 +2176,8 @@
       <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>137</v>
+      <c r="C2" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>42</v>
@@ -2216,8 +2204,8 @@
       <c r="B4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>137</v>
+      <c r="C4" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>47</v>
@@ -2238,14 +2226,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
@@ -2266,7 +2254,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -11637,7 +11625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -11740,7 +11728,7 @@
       <c r="I3">
         <v>101</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="35">
         <v>41925</v>
       </c>
       <c r="K3" s="29" t="s">
@@ -11783,7 +11771,7 @@
         <f>I3+100</f>
         <v>201</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="35">
         <v>41926</v>
       </c>
       <c r="K4" s="29" t="s">
@@ -11826,7 +11814,7 @@
         <f t="shared" ref="I5:I8" si="1">I4+100</f>
         <v>301</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="35">
         <v>41927</v>
       </c>
       <c r="K5" s="29" t="s">
@@ -11869,7 +11857,7 @@
         <f t="shared" si="1"/>
         <v>401</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="37">
         <v>0.79918981481481488</v>
       </c>
       <c r="K6" s="29" t="s">
@@ -11914,7 +11902,7 @@
         <f t="shared" si="1"/>
         <v>501</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="36">
         <v>0.38252314814814814</v>
       </c>
       <c r="K7" s="29" t="s">
@@ -11959,7 +11947,7 @@
         <f t="shared" si="1"/>
         <v>601</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="33">
         <v>41932.826967592591</v>
       </c>
       <c r="K8" s="29" t="s">

--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projs\github\xresloader\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projs\github\xresloader\xresloader\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="工具命令行设计" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="146">
   <si>
     <t>角色ID</t>
   </si>
@@ -647,31 +647,6 @@
   </si>
   <si>
     <t>[_\$ \t\r\n]</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>./sample/资源转换示例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xls</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -778,6 +753,56 @@
         <charset val="134"/>
       </rPr>
       <t>版本)，故而该选项对Protobuf无效</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资源转换示例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资源转换示例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
     </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -2227,7 +2252,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2266,16 +2291,16 @@
         <v>45</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2286,16 +2311,16 @@
         <v>46</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2327,7 +2352,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2416,7 +2441,7 @@
         <v>92</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2459,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2475,16 +2500,16 @@
         <v>45</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2496,13 +2521,13 @@
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2513,16 +2538,16 @@
         <v>46</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2543,7 +2568,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -2557,7 +2582,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -2666,7 +2691,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2715,7 +2740,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -2727,7 +2752,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3457,7 +3482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4589,8 +4614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4831,10 +4856,7 @@
         <f t="shared" si="0"/>
         <v>莫瑞茨</v>
       </c>
-      <c r="M6" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>机器人</v>
-      </c>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
@@ -4876,10 +4898,7 @@
         <f t="shared" si="0"/>
         <v>爱丽丝</v>
       </c>
-      <c r="M7" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>公主</v>
-      </c>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
@@ -4921,10 +4940,7 @@
         <f t="shared" si="0"/>
         <v>都玛西亚</v>
       </c>
-      <c r="M8" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>骑士</v>
-      </c>
+      <c r="M8" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>

--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -20,7 +20,7 @@
     <sheet name="kind" sheetId="3" r:id="rId6"/>
     <sheet name="macro" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -4607,15 +4607,16 @@
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M8"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4724,7 +4725,7 @@
         <v>120</v>
       </c>
       <c r="L3" s="29" t="str">
-        <f t="shared" ref="L3:M8" si="0">E3</f>
+        <f t="shared" ref="L3:M6" si="0">E3</f>
         <v>欧若拉</v>
       </c>
       <c r="M3" s="29" t="str">
@@ -4800,7 +4801,7 @@
         <v>112</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I8" si="1">I4+100</f>
+        <f t="shared" ref="I5:I6" si="1">I4+100</f>
         <v>301</v>
       </c>
       <c r="J5" s="34">
@@ -4858,89 +4859,89 @@
       </c>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>10005</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B8" s="9">
         <f>B6*1.5</f>
         <v>183</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
         <v>99999</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>91</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
+      <c r="I8">
+        <f>I6+100</f>
         <v>501</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J8" s="35">
         <v>0.38252314814814814</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K8" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="29" t="str">
-        <f t="shared" si="0"/>
+      <c r="L8" s="29" t="str">
+        <f>E8</f>
         <v>爱丽丝</v>
       </c>
-      <c r="M7" s="29"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>10006</v>
       </c>
-      <c r="B8" s="9">
-        <f>FLOOR(B7*1.5, 1)</f>
+      <c r="B9" s="9">
+        <f>FLOOR(B8*1.5, 1)</f>
         <v>274</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>999</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>101</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
+      <c r="I9">
+        <f>I8+100</f>
         <v>601</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J9" s="32">
         <v>41932.826967592591</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K9" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="L8" s="29" t="str">
-        <f t="shared" si="0"/>
+      <c r="L9" s="29" t="str">
+        <f>E9</f>
         <v>都玛西亚</v>
       </c>
-      <c r="M8" s="29"/>
+      <c r="M9" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>

--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工具命令行设计" sheetId="6" r:id="rId1"/>
@@ -209,10 +209,6 @@
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏币</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -804,6 +800,10 @@
       </rPr>
       <t>x</t>
     </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏币1</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -2086,154 +2086,154 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2265,19 +2265,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>30</v>
@@ -2285,42 +2285,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>44</v>
@@ -2346,18 +2346,18 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>33</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>34</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>35</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>39</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>38</v>
@@ -2412,36 +2412,36 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="F13" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2474,19 +2474,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>30</v>
@@ -2494,60 +2494,60 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -2562,13 +2562,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -2576,13 +2576,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>33</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>34</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>35</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>39</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>38</v>
@@ -2660,38 +2660,38 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -2752,7 +2752,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4615,7 +4615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -4673,25 +4673,25 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>111</v>
-      </c>
       <c r="K2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>126</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -4722,7 +4722,7 @@
         <v>41925</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L3" s="29" t="str">
         <f t="shared" ref="L3:M6" si="0">E3</f>
@@ -4765,7 +4765,7 @@
         <v>41926</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4" s="29" t="str">
         <f t="shared" si="0"/>
@@ -4798,7 +4798,7 @@
         <v>71</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I6" si="1">I4+100</f>
@@ -4808,7 +4808,7 @@
         <v>41927</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -4841,7 +4841,7 @@
         <v>81</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -4851,7 +4851,7 @@
         <v>0.79918981481481488</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L6" s="29" t="str">
         <f t="shared" si="0"/>
@@ -4883,7 +4883,7 @@
         <v>91</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8">
         <f>I6+100</f>
@@ -4893,7 +4893,7 @@
         <v>0.38252314814814814</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" s="29" t="str">
         <f>E8</f>
@@ -4925,7 +4925,7 @@
         <v>101</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9">
         <f>I8+100</f>
@@ -4935,7 +4935,7 @@
         <v>41932.826967592591</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" s="29" t="str">
         <f>E9</f>
@@ -4954,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4985,8 +4985,8 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>51</v>
+      <c r="A4" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="B4" s="12">
         <v>10001</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="12">
         <v>10101</v>

--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -803,7 +803,7 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>游戏币1</t>
+    <t>游戏币</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>

--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -5,27 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projs\github\xresloader\xresloader\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\projs\github\xresloader\xresloader\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="工具命令行设计" sheetId="6" r:id="rId1"/>
     <sheet name="scheme_kind" sheetId="4" r:id="rId2"/>
-    <sheet name="scheme_upgrade" sheetId="8" r:id="rId3"/>
-    <sheet name="upgrade_10001" sheetId="1" r:id="rId4"/>
-    <sheet name="upgrade_10002" sheetId="7" r:id="rId5"/>
-    <sheet name="kind" sheetId="3" r:id="rId6"/>
+    <sheet name="kind" sheetId="3" r:id="rId3"/>
+    <sheet name="scheme_upgrade" sheetId="8" r:id="rId4"/>
+    <sheet name="upgrade_10001" sheetId="1" r:id="rId5"/>
+    <sheet name="upgrade_10002" sheetId="7" r:id="rId6"/>
     <sheet name="macro" sheetId="5" r:id="rId7"/>
+    <sheet name="scheme_arr_in_arr" sheetId="9" r:id="rId8"/>
+    <sheet name="arr_in_arr" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="185">
   <si>
     <t>角色ID</t>
   </si>
@@ -805,6 +807,162 @@
   <si>
     <t>游戏币</t>
     <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr_in_arr_cfg.bin</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr_in_arr</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>大写/小写/不变</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>小写</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组0.name</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组0.整数0</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组0.整数1</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组0.字符串0</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组0.字符串1</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[0].name</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[0].int_arr[0]</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[0].int_arr[1]</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[0].str_arr[0]</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[0].str_arr[1]</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组1.整数0</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组1.整数1</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组1.字符串0</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组1.字符串1</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>啦啦啦啦</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘞嘞嘞嘞</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘟嘟嘟嘟</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚓嚓嚓嚓</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>biubiubiubiu</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>唰唰唰唰</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦哦哦哦</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈哈</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr_in_arr_cfg</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组1.name</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[1].name</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[1].int_arr[0]</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[1].int_arr[1]</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[1].str_arr[0]</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[1].str_arr[1]</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个-A</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个-B</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试项-A</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试项-B</t>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1527,7 +1685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1641,6 +1799,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2170,8 +2331,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="39" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2199,8 +2360,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="39" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2324,14 +2485,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
@@ -2455,6 +2616,345 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <v>123</v>
+      </c>
+      <c r="I3">
+        <v>101</v>
+      </c>
+      <c r="J3" s="34">
+        <v>41925</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="29" t="str">
+        <f t="shared" ref="L3:M6" si="0">E3</f>
+        <v>欧若拉</v>
+      </c>
+      <c r="M3" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>小魔女</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="9">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <f>D3*2</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>61</v>
+      </c>
+      <c r="H4">
+        <v>654</v>
+      </c>
+      <c r="I4">
+        <f>I3+100</f>
+        <v>201</v>
+      </c>
+      <c r="J4" s="34">
+        <v>41926</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>杰克</v>
+      </c>
+      <c r="M4" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>海盗王子</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="9">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <f>D4*2</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>71</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I6" si="1">I4+100</f>
+        <v>301</v>
+      </c>
+      <c r="J5" s="34">
+        <v>41927</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>库拉</v>
+      </c>
+      <c r="M5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>喵少年</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="9">
+        <v>122</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <f>D5*2</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>81</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="J6" s="36">
+        <v>0.79918981481481488</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>莫瑞茨</v>
+      </c>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="9">
+        <f>B6*1.5</f>
+        <v>183</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>99999</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>91</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8">
+        <f>I6+100</f>
+        <v>501</v>
+      </c>
+      <c r="J8" s="35">
+        <v>0.38252314814814814</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="29" t="str">
+        <f>E8</f>
+        <v>爱丽丝</v>
+      </c>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="9">
+        <f>FLOOR(B8*1.5, 1)</f>
+        <v>274</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9">
+        <v>999</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>101</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9">
+        <f>I8+100</f>
+        <v>601</v>
+      </c>
+      <c r="J9" s="32">
+        <v>41932.826967592591</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="29" t="str">
+        <f>E9</f>
+        <v>都玛西亚</v>
+      </c>
+      <c r="M9" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -2551,14 +3051,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
@@ -2703,7 +3203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -3478,11 +3978,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4611,350 +5111,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>10001</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>51</v>
-      </c>
-      <c r="H3">
-        <v>123</v>
-      </c>
-      <c r="I3">
-        <v>101</v>
-      </c>
-      <c r="J3" s="34">
-        <v>41925</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="29" t="str">
-        <f t="shared" ref="L3:M6" si="0">E3</f>
-        <v>欧若拉</v>
-      </c>
-      <c r="M3" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>小魔女</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>10002</v>
-      </c>
-      <c r="B4" s="9">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <f>D3*2</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>61</v>
-      </c>
-      <c r="H4">
-        <v>654</v>
-      </c>
-      <c r="I4">
-        <f>I3+100</f>
-        <v>201</v>
-      </c>
-      <c r="J4" s="34">
-        <v>41926</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>杰克</v>
-      </c>
-      <c r="M4" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>海盗王子</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>10003</v>
-      </c>
-      <c r="B5" s="9">
-        <v>85</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <f>D4*2</f>
-        <v>4</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>71</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I6" si="1">I4+100</f>
-        <v>301</v>
-      </c>
-      <c r="J5" s="34">
-        <v>41927</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>库拉</v>
-      </c>
-      <c r="M5" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>喵少年</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>10004</v>
-      </c>
-      <c r="B6" s="9">
-        <v>122</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <f>D5*2</f>
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>81</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>401</v>
-      </c>
-      <c r="J6" s="36">
-        <v>0.79918981481481488</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>莫瑞茨</v>
-      </c>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="9">
-        <f>B6*1.5</f>
-        <v>183</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9">
-        <v>99999</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8">
-        <v>91</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8">
-        <f>I6+100</f>
-        <v>501</v>
-      </c>
-      <c r="J8" s="35">
-        <v>0.38252314814814814</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" s="29" t="str">
-        <f>E8</f>
-        <v>爱丽丝</v>
-      </c>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="9">
-        <f>FLOOR(B8*1.5, 1)</f>
-        <v>274</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="9">
-        <v>999</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>101</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9">
-        <f>I8+100</f>
-        <v>601</v>
-      </c>
-      <c r="J9" s="32">
-        <v>41932.826967592591</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="29" t="str">
-        <f>E9</f>
-        <v>都玛西亚</v>
-      </c>
-      <c r="M9" s="29"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -5004,4 +5165,374 @@
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="50.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="11" width="15.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="3">
+        <v>101</v>
+      </c>
+      <c r="D3" s="3">
+        <v>102</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="3">
+        <v>111</v>
+      </c>
+      <c r="I3" s="3">
+        <v>112</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3">
+        <v>202</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="3">
+        <v>211</v>
+      </c>
+      <c r="I4" s="3">
+        <v>212</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工具命令行设计" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="184">
   <si>
     <t>角色ID</t>
   </si>
@@ -694,10 +694,6 @@
   </si>
   <si>
     <t>0Id</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0ScoreAdd</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2452,7 +2448,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>42</v>
@@ -2472,7 +2468,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>47</v>
@@ -2602,7 +2598,7 @@
         <v>91</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3000,7 +2996,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>135</v>
@@ -3038,7 +3034,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>47</v>
@@ -3191,7 +3187,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3205,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3217,11 +3213,10 @@
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="7"/>
+    <col min="5" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3234,11 +3229,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>139</v>
       </c>
@@ -3251,11 +3243,8 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10001</v>
       </c>
@@ -3264,11 +3253,8 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
@@ -3282,11 +3268,8 @@
         <f>(B4-1)*50</f>
         <v>50</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10001</v>
       </c>
@@ -3300,11 +3283,8 @@
         <f t="shared" ref="D5:D42" si="0">(B5-1)*50</f>
         <v>100</v>
       </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>10001</v>
       </c>
@@ -3318,11 +3298,8 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10001</v>
       </c>
@@ -3336,11 +3313,8 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10001</v>
       </c>
@@ -3354,11 +3328,8 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E8" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>10001</v>
       </c>
@@ -3372,11 +3343,8 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E9" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10001</v>
       </c>
@@ -3390,11 +3358,8 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="E10" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10001</v>
       </c>
@@ -3408,11 +3373,8 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E11" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10001</v>
       </c>
@@ -3426,11 +3388,8 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="E12" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10001</v>
       </c>
@@ -3444,11 +3403,8 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E13" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10001</v>
       </c>
@@ -3462,11 +3418,8 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="E14" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10001</v>
       </c>
@@ -3480,11 +3433,8 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E15" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10001</v>
       </c>
@@ -3498,11 +3448,8 @@
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
-      <c r="E16" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>10001</v>
       </c>
@@ -3516,11 +3463,8 @@
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="E17" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>10001</v>
       </c>
@@ -3534,11 +3478,8 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="E18" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>10001</v>
       </c>
@@ -3552,11 +3493,8 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E19" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>10001</v>
       </c>
@@ -3570,11 +3508,8 @@
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="E20" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>10001</v>
       </c>
@@ -3588,11 +3523,8 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="E21" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>10001</v>
       </c>
@@ -3606,11 +3538,8 @@
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-      <c r="E22" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>10001</v>
       </c>
@@ -3624,11 +3553,8 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E23" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>10001</v>
       </c>
@@ -3642,11 +3568,8 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="E24" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>10001</v>
       </c>
@@ -3660,11 +3583,8 @@
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="E25" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>10001</v>
       </c>
@@ -3678,11 +3598,8 @@
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
-      <c r="E26" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>10001</v>
       </c>
@@ -3696,11 +3613,8 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="E27" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10001</v>
       </c>
@@ -3714,11 +3628,8 @@
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="E28" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>10001</v>
       </c>
@@ -3732,11 +3643,8 @@
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="E29" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>10001</v>
       </c>
@@ -3750,11 +3658,8 @@
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="E30" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>10001</v>
       </c>
@@ -3768,11 +3673,8 @@
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="E31" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>10001</v>
       </c>
@@ -3786,11 +3688,8 @@
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="E32" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>10001</v>
       </c>
@@ -3804,11 +3703,8 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E33" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>10001</v>
       </c>
@@ -3822,11 +3718,8 @@
         <f t="shared" si="0"/>
         <v>1550</v>
       </c>
-      <c r="E34" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>10001</v>
       </c>
@@ -3840,11 +3733,8 @@
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="E35" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>10001</v>
       </c>
@@ -3858,11 +3748,8 @@
         <f t="shared" si="0"/>
         <v>1650</v>
       </c>
-      <c r="E36" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>10001</v>
       </c>
@@ -3876,11 +3763,8 @@
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="E37" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>10001</v>
       </c>
@@ -3894,11 +3778,8 @@
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="E38" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>10001</v>
       </c>
@@ -3912,11 +3793,8 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="E39" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>10001</v>
       </c>
@@ -3930,11 +3808,8 @@
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
-      <c r="E40" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>10001</v>
       </c>
@@ -3948,11 +3823,8 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="E41" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>10001</v>
       </c>
@@ -3965,9 +3837,6 @@
       <c r="D42" s="4">
         <f t="shared" si="0"/>
         <v>1950</v>
-      </c>
-      <c r="E42" s="7">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3980,10 +3849,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3991,11 +3860,10 @@
     <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4006,13 +3874,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4023,13 +3888,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>10002</v>
       </c>
@@ -4037,12 +3899,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>10002</v>
       </c>
@@ -4052,15 +3913,11 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
-        <f>(B4-1)*50</f>
-        <v>50</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>10002</v>
       </c>
@@ -4070,15 +3927,11 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:D62" si="0">(B5-1)*50</f>
-        <v>100</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>10002</v>
       </c>
@@ -4088,15 +3941,11 @@
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>10002</v>
       </c>
@@ -4106,15 +3955,11 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>10002</v>
       </c>
@@ -4124,15 +3969,11 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>10002</v>
       </c>
@@ -4142,15 +3983,11 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>10002</v>
       </c>
@@ -4160,15 +3997,11 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10002</v>
       </c>
@@ -4178,15 +4011,11 @@
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10002</v>
       </c>
@@ -4196,15 +4025,11 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>10002</v>
       </c>
@@ -4214,15 +4039,11 @@
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="E13" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>10002</v>
       </c>
@@ -4232,15 +4053,11 @@
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>10002</v>
       </c>
@@ -4250,15 +4067,11 @@
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>10002</v>
       </c>
@@ -4268,15 +4081,11 @@
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>650</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>10002</v>
       </c>
@@ -4286,15 +4095,11 @@
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>10002</v>
       </c>
@@ -4304,15 +4109,11 @@
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>10002</v>
       </c>
@@ -4322,15 +4123,11 @@
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>10002</v>
       </c>
@@ -4340,15 +4137,11 @@
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>10002</v>
       </c>
@@ -4358,15 +4151,11 @@
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>10002</v>
       </c>
@@ -4376,15 +4165,11 @@
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>950</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>10002</v>
       </c>
@@ -4394,15 +4179,11 @@
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>10002</v>
       </c>
@@ -4412,15 +4193,11 @@
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>10002</v>
       </c>
@@ -4430,15 +4207,11 @@
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>10002</v>
       </c>
@@ -4448,15 +4221,11 @@
       <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>1150</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>10002</v>
       </c>
@@ -4466,15 +4235,11 @@
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>10002</v>
       </c>
@@ -4484,15 +4249,11 @@
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>1250</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>10002</v>
       </c>
@@ -4502,15 +4263,11 @@
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>10002</v>
       </c>
@@ -4520,15 +4277,11 @@
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>1350</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="7">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>10002</v>
       </c>
@@ -4538,15 +4291,11 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>10002</v>
       </c>
@@ -4556,15 +4305,11 @@
       <c r="C32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>1450</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D32" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>10002</v>
       </c>
@@ -4574,15 +4319,11 @@
       <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D33" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>10002</v>
       </c>
@@ -4592,15 +4333,11 @@
       <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>1550</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="D34" s="7">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>10002</v>
       </c>
@@ -4610,15 +4347,11 @@
       <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="3">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="D35" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>10002</v>
       </c>
@@ -4628,15 +4361,11 @@
       <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="3">
-        <f t="shared" si="0"/>
-        <v>1650</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="D36" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>10002</v>
       </c>
@@ -4646,15 +4375,11 @@
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="3">
-        <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="D37" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>10002</v>
       </c>
@@ -4664,15 +4389,11 @@
       <c r="C38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="3">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="D38" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>10002</v>
       </c>
@@ -4682,15 +4403,11 @@
       <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="3">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="D39" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>10002</v>
       </c>
@@ -4700,15 +4417,11 @@
       <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="3">
-        <f t="shared" si="0"/>
-        <v>1850</v>
-      </c>
-      <c r="E40" s="7">
+      <c r="D40" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>10002</v>
       </c>
@@ -4718,15 +4431,11 @@
       <c r="C41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="3">
-        <f t="shared" si="0"/>
-        <v>1900</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D41" s="7">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>10002</v>
       </c>
@@ -4736,15 +4445,11 @@
       <c r="C42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="3">
-        <f t="shared" si="0"/>
-        <v>1950</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="D42" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>10002</v>
       </c>
@@ -4754,15 +4459,11 @@
       <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="3">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="D43" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>10002</v>
       </c>
@@ -4772,15 +4473,11 @@
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="5">
-        <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="D44" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>10002</v>
       </c>
@@ -4790,15 +4487,11 @@
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="5">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="E45" s="7">
+      <c r="D45" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>10002</v>
       </c>
@@ -4808,15 +4501,11 @@
       <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="5">
-        <f t="shared" si="0"/>
-        <v>2150</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="D46" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>10002</v>
       </c>
@@ -4826,15 +4515,11 @@
       <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="5">
-        <f t="shared" si="0"/>
-        <v>2200</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="D47" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>10002</v>
       </c>
@@ -4844,15 +4529,11 @@
       <c r="C48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="5">
-        <f t="shared" si="0"/>
-        <v>2250</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="D48" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>10002</v>
       </c>
@@ -4862,15 +4543,11 @@
       <c r="C49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="5">
-        <f t="shared" si="0"/>
-        <v>2300</v>
-      </c>
-      <c r="E49" s="7">
+      <c r="D49" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>10002</v>
       </c>
@@ -4880,15 +4557,11 @@
       <c r="C50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="5">
-        <f t="shared" si="0"/>
-        <v>2350</v>
-      </c>
-      <c r="E50" s="7">
+      <c r="D50" s="7">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>10002</v>
       </c>
@@ -4898,15 +4571,11 @@
       <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="5">
-        <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="E51" s="7">
+      <c r="D51" s="7">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>10002</v>
       </c>
@@ -4916,15 +4585,11 @@
       <c r="C52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="5">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-      <c r="E52" s="7">
+      <c r="D52" s="7">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>10002</v>
       </c>
@@ -4934,15 +4599,11 @@
       <c r="C53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="5">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="D53" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>10002</v>
       </c>
@@ -4952,15 +4613,11 @@
       <c r="C54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="5">
-        <f t="shared" si="0"/>
-        <v>2550</v>
-      </c>
-      <c r="E54" s="7">
+      <c r="D54" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>10002</v>
       </c>
@@ -4970,15 +4627,11 @@
       <c r="C55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="5">
-        <f t="shared" si="0"/>
-        <v>2600</v>
-      </c>
-      <c r="E55" s="7">
+      <c r="D55" s="7">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>10002</v>
       </c>
@@ -4988,15 +4641,11 @@
       <c r="C56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="5">
-        <f t="shared" si="0"/>
-        <v>2650</v>
-      </c>
-      <c r="E56" s="7">
+      <c r="D56" s="7">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>10002</v>
       </c>
@@ -5006,15 +4655,11 @@
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="5">
-        <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
-      <c r="E57" s="7">
+      <c r="D57" s="7">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>10002</v>
       </c>
@@ -5024,15 +4669,11 @@
       <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="5">
-        <f t="shared" si="0"/>
-        <v>2750</v>
-      </c>
-      <c r="E58" s="7">
+      <c r="D58" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>10002</v>
       </c>
@@ -5042,15 +4683,11 @@
       <c r="C59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="5">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="E59" s="7">
+      <c r="D59" s="7">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>10002</v>
       </c>
@@ -5060,15 +4697,11 @@
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="5">
-        <f t="shared" si="0"/>
-        <v>2850</v>
-      </c>
-      <c r="E60" s="7">
+      <c r="D60" s="7">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>10002</v>
       </c>
@@ -5078,15 +4711,11 @@
       <c r="C61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="5">
-        <f t="shared" si="0"/>
-        <v>2900</v>
-      </c>
-      <c r="E61" s="7">
+      <c r="D61" s="7">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>10002</v>
       </c>
@@ -5096,11 +4725,7 @@
       <c r="C62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="6">
-        <f t="shared" si="0"/>
-        <v>2950</v>
-      </c>
-      <c r="E62" s="7">
+      <c r="D62" s="7">
         <v>59</v>
       </c>
     </row>
@@ -5147,7 +4772,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="12">
         <v>10001</v>
@@ -5211,10 +4836,10 @@
         <v>45</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>131</v>
@@ -5231,7 +4856,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>47</v>
@@ -5261,7 +4886,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -5272,7 +4897,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -5294,10 +4919,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -5361,7 +4986,7 @@
         <v>91</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5378,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -5392,72 +5017,72 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -5465,7 +5090,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="3">
         <v>101</v>
@@ -5474,13 +5099,13 @@
         <v>102</v>
       </c>
       <c r="E3" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>167</v>
-      </c>
       <c r="G3" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="3">
         <v>111</v>
@@ -5489,10 +5114,10 @@
         <v>112</v>
       </c>
       <c r="J3" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>168</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -5500,7 +5125,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3">
         <v>201</v>
@@ -5509,13 +5134,13 @@
         <v>202</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>171</v>
-      </c>
       <c r="G4" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H4" s="3">
         <v>211</v>
@@ -5524,10 +5149,10 @@
         <v>212</v>
       </c>
       <c r="J4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="38" t="s">
         <v>172</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="工具命令行设计" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="196">
   <si>
     <t>角色ID</t>
   </si>
@@ -47,16 +47,10 @@
     <t>0Id</t>
   </si>
   <si>
-    <t>0Level</t>
-  </si>
-  <si>
     <t>0CostType</t>
   </si>
   <si>
     <t>0CostValue</t>
-  </si>
-  <si>
-    <t>0ScoreAdd</t>
   </si>
   <si>
     <t>游戏币</t>
@@ -179,6 +173,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ole_cfg</t>
@@ -397,6 +392,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ataSource</t>
@@ -412,6 +408,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>acroSource</t>
@@ -463,6 +460,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>name</t>
@@ -478,6 +476,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>dep2.id</t>
@@ -497,6 +496,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>dadasd</t>
@@ -512,6 +512,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>fff</t>
@@ -550,6 +551,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>alal</t>
@@ -565,6 +567,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>lebleble</t>
@@ -600,6 +603,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -609,6 +613,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>]</t>
@@ -624,6 +629,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -633,6 +639,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>]</t>
@@ -691,10 +698,6 @@
   <si>
     <t>role_upgrade_cfg.bin</t>
     <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>0Id</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -717,6 +720,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>版本)，故而该选项对Protobuf无效</t>
@@ -744,6 +748,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>版本)，故而该选项对Protobuf无效</t>
@@ -759,6 +764,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.xls</t>
@@ -784,6 +790,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.xls</t>
@@ -960,6 +967,64 @@
     <t>测试项-B</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
+  <si>
+    <t>大写/小写/不变</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostValue</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScoreAdd</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostType@cost_type</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostType@cost_type</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN_CT_MONEY</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_id_1</t>
+  </si>
+  <si>
+    <t>test_id_2</t>
+  </si>
+  <si>
+    <t>test_id_2</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_id_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id@test_msg_verifier</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id@test_msg_verifier</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -972,7 +1037,7 @@
     <numFmt numFmtId="179" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
     <numFmt numFmtId="180" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -983,18 +1048,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1002,6 +1070,7 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1009,6 +1078,7 @@
       <sz val="13"/>
       <color indexed="54"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1016,6 +1086,7 @@
       <sz val="15"/>
       <color indexed="54"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1023,6 +1094,7 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1030,18 +1102,21 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="54"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1049,18 +1124,21 @@
       <sz val="11"/>
       <color indexed="54"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1068,18 +1146,21 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1087,6 +1168,7 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1100,69 +1182,81 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1174,6 +1268,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1481,7 +1583,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,8 +1782,11 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1814,8 +1919,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="10" xfId="66" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="67">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
@@ -1859,6 +1970,7 @@
     <cellStyle name="标题 4" xfId="41" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="42" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8"/>
     <cellStyle name="好" xfId="43" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="44" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="45" builtinId="22" customBuiltin="1"/>
@@ -2243,154 +2355,154 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2422,67 +2534,67 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>132</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -2492,32 +2604,32 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="16">
         <v>2</v>
@@ -2525,80 +2637,80 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="C12" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -2638,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -2647,10 +2759,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -2658,40 +2770,40 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>110</v>
-      </c>
       <c r="K2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="30" t="s">
-        <v>127</v>
-      </c>
       <c r="M2" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -2704,10 +2816,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -2722,7 +2834,7 @@
         <v>41925</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L3" s="29" t="str">
         <f t="shared" ref="L3:M6" si="0">E3</f>
@@ -2746,10 +2858,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>61</v>
@@ -2765,7 +2877,7 @@
         <v>41926</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L4" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2789,16 +2901,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>71</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I6" si="1">I4+100</f>
@@ -2808,7 +2920,7 @@
         <v>41927</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2832,16 +2944,16 @@
         <v>8</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>81</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -2851,7 +2963,7 @@
         <v>0.79918981481481488</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L6" s="29" t="str">
         <f t="shared" si="0"/>
@@ -2868,22 +2980,22 @@
         <v>183</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="9">
         <v>99999</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>91</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I8">
         <f>I6+100</f>
@@ -2893,7 +3005,7 @@
         <v>0.38252314814814814</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L8" s="29" t="str">
         <f>E8</f>
@@ -2910,22 +3022,22 @@
         <v>274</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="9">
         <v>999</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>101</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I9">
         <f>I8+100</f>
@@ -2935,7 +3047,7 @@
         <v>41932.826967592591</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L9" s="29" t="str">
         <f>E9</f>
@@ -2955,7 +3067,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2970,85 +3082,85 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>132</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -3058,13 +3170,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -3072,13 +3184,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -3086,10 +3198,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="16">
         <v>2</v>
@@ -3100,42 +3212,40 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="15" t="s">
         <v>32</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>182</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="15" t="s">
-        <v>31</v>
+      <c r="F9" s="44" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -3144,10 +3254,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -3156,38 +3266,32 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>118</v>
-      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3196,6 +3300,7 @@
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3203,15 +3308,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.75" style="7"/>
   </cols>
@@ -3231,22 +3336,22 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>139</v>
+      <c r="A2" s="45" t="s">
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>183</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>10001</v>
+      <c r="A3" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -3255,14 +3360,14 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>10001</v>
+      <c r="A4" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <f>(B4-1)*50</f>
@@ -3270,14 +3375,14 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>10001</v>
+      <c r="A5" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D42" si="0">(B5-1)*50</f>
@@ -3285,14 +3390,14 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>10001</v>
+      <c r="A6" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
@@ -3300,14 +3405,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>10001</v>
+      <c r="A7" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
@@ -3315,14 +3420,14 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>10001</v>
+      <c r="A8" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
@@ -3330,14 +3435,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>10001</v>
+      <c r="A9" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
@@ -3345,14 +3450,14 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>10001</v>
+      <c r="A10" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
@@ -3360,14 +3465,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10001</v>
+      <c r="A11" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
@@ -3375,14 +3480,14 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>10001</v>
+      <c r="A12" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
@@ -3390,14 +3495,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>10001</v>
+      <c r="A13" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
@@ -3405,14 +3510,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>10001</v>
+      <c r="A14" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
@@ -3420,14 +3525,14 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>10001</v>
+      <c r="A15" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
@@ -3435,14 +3540,14 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>10001</v>
+      <c r="A16" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
@@ -3450,14 +3555,14 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>10001</v>
+      <c r="A17" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
@@ -3465,14 +3570,14 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>10001</v>
+      <c r="A18" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B18" s="3">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
@@ -3480,14 +3585,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>10001</v>
+      <c r="A19" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
@@ -3495,14 +3600,14 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>10001</v>
+      <c r="A20" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B20" s="3">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
@@ -3510,14 +3615,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>10001</v>
+      <c r="A21" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B21" s="3">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
@@ -3525,14 +3630,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>10001</v>
+      <c r="A22" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B22" s="3">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
@@ -3540,14 +3645,14 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>10001</v>
+      <c r="A23" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B23" s="3">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
@@ -3555,14 +3660,14 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>10001</v>
+      <c r="A24" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B24" s="3">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
@@ -3570,14 +3675,14 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>10001</v>
+      <c r="A25" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B25" s="3">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
@@ -3585,14 +3690,14 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>10001</v>
+      <c r="A26" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B26" s="3">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
@@ -3600,14 +3705,14 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>10001</v>
+      <c r="A27" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B27" s="3">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
@@ -3615,14 +3720,14 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>10001</v>
+      <c r="A28" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B28" s="3">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
@@ -3630,14 +3735,14 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>10001</v>
+      <c r="A29" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B29" s="3">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
@@ -3645,14 +3750,14 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>10001</v>
+      <c r="A30" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B30" s="3">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
@@ -3660,14 +3765,14 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>10001</v>
+      <c r="A31" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B31" s="3">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
@@ -3675,14 +3780,14 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>10001</v>
+      <c r="A32" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B32" s="3">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
@@ -3690,14 +3795,14 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>10001</v>
+      <c r="A33" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B33" s="3">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
@@ -3705,14 +3810,14 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>10001</v>
+      <c r="A34" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B34" s="3">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="0"/>
@@ -3720,14 +3825,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>10001</v>
+      <c r="A35" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B35" s="3">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="0"/>
@@ -3735,14 +3840,14 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>10001</v>
+      <c r="A36" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B36" s="3">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
@@ -3750,14 +3855,14 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>10001</v>
+      <c r="A37" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B37" s="3">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="0"/>
@@ -3765,14 +3870,14 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>10001</v>
+      <c r="A38" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B38" s="3">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
@@ -3780,14 +3885,14 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>10001</v>
+      <c r="A39" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B39" s="3">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
@@ -3795,14 +3900,14 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>10001</v>
+      <c r="A40" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B40" s="3">
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
@@ -3810,14 +3915,14 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>10001</v>
+      <c r="A41" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B41" s="3">
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="0"/>
@@ -3825,14 +3930,14 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>10001</v>
+      <c r="A42" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B42" s="4">
         <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="0"/>
@@ -3841,8 +3946,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3851,15 +3960,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3878,22 +3987,22 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="45" t="s">
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>185</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>10002</v>
+      <c r="A3" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -3904,826 +4013,826 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>10002</v>
+      <c r="A4" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>10002</v>
+      <c r="A5" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D5" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>10002</v>
+      <c r="A6" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>10002</v>
+      <c r="A7" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D7" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>10002</v>
+      <c r="A8" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D8" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>10002</v>
+      <c r="A9" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D9" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>10002</v>
+      <c r="A10" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D10" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>10002</v>
+      <c r="A11" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>10002</v>
+      <c r="A12" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D12" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>10002</v>
+      <c r="A13" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D13" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>10002</v>
+      <c r="A14" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B14" s="5">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D14" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>10002</v>
+      <c r="A15" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B15" s="5">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D15" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>10002</v>
+      <c r="A16" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D16" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>10002</v>
+      <c r="A17" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B17" s="5">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D17" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>10002</v>
+      <c r="A18" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B18" s="5">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D18" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>10002</v>
+      <c r="A19" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B19" s="5">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D19" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>10002</v>
+      <c r="A20" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D20" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>10002</v>
+      <c r="A21" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B21" s="5">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D21" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>10002</v>
+      <c r="A22" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B22" s="5">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D22" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>10002</v>
+      <c r="A23" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B23" s="5">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D23" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>10002</v>
+      <c r="A24" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B24" s="5">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D24" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>10002</v>
+      <c r="A25" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B25" s="5">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D25" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>10002</v>
+      <c r="A26" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B26" s="5">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D26" s="7">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>10002</v>
+      <c r="A27" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B27" s="5">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D27" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>10002</v>
+      <c r="A28" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B28" s="5">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D28" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>10002</v>
+      <c r="A29" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B29" s="5">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D29" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>10002</v>
+      <c r="A30" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B30" s="5">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D30" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>10002</v>
+      <c r="A31" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B31" s="5">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D31" s="7">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>10002</v>
+      <c r="A32" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B32" s="5">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D32" s="7">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>10002</v>
+      <c r="A33" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B33" s="5">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D33" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>10002</v>
+      <c r="A34" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B34" s="5">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D34" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>10002</v>
+      <c r="A35" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B35" s="5">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D35" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>10002</v>
+      <c r="A36" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B36" s="5">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D36" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>10002</v>
+      <c r="A37" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B37" s="5">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D37" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>10002</v>
+      <c r="A38" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B38" s="5">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D38" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>10002</v>
+      <c r="A39" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B39" s="5">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D39" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>10002</v>
+      <c r="A40" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B40" s="5">
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D40" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>10002</v>
+      <c r="A41" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B41" s="5">
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D41" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>10002</v>
+      <c r="A42" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B42" s="5">
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D42" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>10002</v>
+      <c r="A43" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B43" s="5">
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D43" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>10002</v>
+      <c r="A44" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B44" s="5">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D44" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>10002</v>
+      <c r="A45" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B45" s="5">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D45" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>10002</v>
+      <c r="A46" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B46" s="5">
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D46" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
-        <v>10002</v>
+      <c r="A47" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B47" s="5">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D47" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>10002</v>
+      <c r="A48" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B48" s="5">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D48" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>10002</v>
+      <c r="A49" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B49" s="5">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D49" s="7">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
-        <v>10002</v>
+      <c r="A50" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B50" s="5">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D50" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
-        <v>10002</v>
+      <c r="A51" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B51" s="5">
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D51" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
-        <v>10002</v>
+      <c r="A52" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B52" s="5">
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D52" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
-        <v>10002</v>
+      <c r="A53" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B53" s="5">
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D53" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
-        <v>10002</v>
+      <c r="A54" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B54" s="5">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D54" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
-        <v>10002</v>
+      <c r="A55" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B55" s="5">
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D55" s="7">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
-        <v>10002</v>
+      <c r="A56" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B56" s="5">
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D56" s="7">
         <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
-        <v>10002</v>
+      <c r="A57" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B57" s="5">
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D57" s="7">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
-        <v>10002</v>
+      <c r="A58" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B58" s="5">
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D58" s="7">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
-        <v>10002</v>
+      <c r="A59" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B59" s="5">
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D59" s="7">
         <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
-        <v>10002</v>
+      <c r="A60" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B60" s="5">
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D60" s="7">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
-        <v>10002</v>
+      <c r="A61" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B61" s="5">
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D61" s="7">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
-        <v>10002</v>
+      <c r="A62" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B62" s="6">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>10</v>
+      <c r="C62" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D62" s="7">
         <v>59</v>
@@ -4731,8 +4840,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4741,22 +4854,22 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4764,7 +4877,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4772,7 +4885,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B4" s="12">
         <v>10001</v>
@@ -4780,7 +4893,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="12">
         <v>10101</v>
@@ -4810,67 +4923,67 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>132</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -4880,32 +4993,32 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="16">
         <v>2</v>
@@ -4913,80 +5026,80 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="C12" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5004,7 +5117,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5017,72 +5130,72 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -5090,7 +5203,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" s="3">
         <v>101</v>
@@ -5099,13 +5212,13 @@
         <v>102</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H3" s="3">
         <v>111</v>
@@ -5114,10 +5227,10 @@
         <v>112</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -5125,7 +5238,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4" s="3">
         <v>201</v>
@@ -5134,13 +5247,13 @@
         <v>202</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H4" s="3">
         <v>211</v>
@@ -5149,10 +5262,10 @@
         <v>212</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工具命令行设计" sheetId="6" r:id="rId1"/>
@@ -19,15 +19,14 @@
     <sheet name="upgrade_10001" sheetId="1" r:id="rId5"/>
     <sheet name="upgrade_10002" sheetId="7" r:id="rId6"/>
     <sheet name="macro" sheetId="5" r:id="rId7"/>
-    <sheet name="scheme_arr_in_arr" sheetId="9" r:id="rId8"/>
-    <sheet name="arr_in_arr" sheetId="10" r:id="rId9"/>
+    <sheet name="arr_in_arr" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="191">
   <si>
     <t>角色ID</t>
   </si>
@@ -812,14 +811,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>arr_in_arr_cfg.bin</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>arr_in_arr</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
@@ -828,14 +819,6 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>大写/小写/不变</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>小写</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>数组0.name</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
@@ -922,10 +905,6 @@
   <si>
     <t>哈哈哈哈</t>
     <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>arr_in_arr_cfg</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>数组1.name</t>
@@ -1904,6 +1883,12 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="10" xfId="66" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1917,12 +1902,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="10" xfId="66" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2439,8 +2418,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="41" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2468,8 +2447,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="41" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2593,14 +2572,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
@@ -2727,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -3159,14 +3138,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
@@ -3217,13 +3196,13 @@
       <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>182</v>
+      <c r="C9" s="39" t="s">
+        <v>177</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="44" t="s">
-        <v>181</v>
+      <c r="F9" s="39" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3336,22 +3315,22 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>195</v>
+      <c r="A2" s="40" t="s">
+        <v>190</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>188</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -3361,7 +3340,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -3376,7 +3355,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -3391,7 +3370,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -3406,7 +3385,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -3421,7 +3400,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -3436,7 +3415,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -3451,7 +3430,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -3466,7 +3445,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -3481,7 +3460,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -3496,7 +3475,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -3511,7 +3490,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -3526,7 +3505,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
@@ -3541,7 +3520,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
@@ -3556,7 +3535,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
@@ -3571,7 +3550,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B18" s="3">
         <v>16</v>
@@ -3586,7 +3565,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -3601,7 +3580,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B20" s="3">
         <v>18</v>
@@ -3616,7 +3595,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B21" s="3">
         <v>19</v>
@@ -3631,7 +3610,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B22" s="3">
         <v>20</v>
@@ -3646,7 +3625,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B23" s="3">
         <v>21</v>
@@ -3661,7 +3640,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B24" s="3">
         <v>22</v>
@@ -3676,7 +3655,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B25" s="3">
         <v>23</v>
@@ -3691,7 +3670,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B26" s="3">
         <v>24</v>
@@ -3706,7 +3685,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B27" s="3">
         <v>25</v>
@@ -3721,7 +3700,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B28" s="3">
         <v>26</v>
@@ -3736,7 +3715,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B29" s="3">
         <v>27</v>
@@ -3751,7 +3730,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B30" s="3">
         <v>28</v>
@@ -3766,7 +3745,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B31" s="3">
         <v>29</v>
@@ -3781,7 +3760,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B32" s="3">
         <v>30</v>
@@ -3796,7 +3775,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B33" s="3">
         <v>31</v>
@@ -3811,7 +3790,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B34" s="3">
         <v>32</v>
@@ -3826,7 +3805,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B35" s="3">
         <v>33</v>
@@ -3841,7 +3820,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B36" s="3">
         <v>34</v>
@@ -3856,7 +3835,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B37" s="3">
         <v>35</v>
@@ -3871,7 +3850,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B38" s="3">
         <v>36</v>
@@ -3886,7 +3865,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B39" s="3">
         <v>37</v>
@@ -3901,7 +3880,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B40" s="3">
         <v>38</v>
@@ -3916,7 +3895,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B41" s="3">
         <v>39</v>
@@ -3931,7 +3910,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B42" s="4">
         <v>40</v>
@@ -3960,7 +3939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3987,22 +3966,22 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>194</v>
+      <c r="A2" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -4014,13 +3993,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -4028,13 +4007,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7">
         <v>2</v>
@@ -4042,13 +4021,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -4056,13 +4035,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D7" s="7">
         <v>4</v>
@@ -4070,13 +4049,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D8" s="7">
         <v>5</v>
@@ -4084,13 +4063,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D9" s="7">
         <v>6</v>
@@ -4098,13 +4077,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D10" s="7">
         <v>7</v>
@@ -4112,13 +4091,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D11" s="7">
         <v>8</v>
@@ -4126,13 +4105,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D12" s="7">
         <v>9</v>
@@ -4140,13 +4119,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D13" s="7">
         <v>10</v>
@@ -4154,13 +4133,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B14" s="5">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D14" s="7">
         <v>11</v>
@@ -4168,13 +4147,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B15" s="5">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D15" s="7">
         <v>12</v>
@@ -4182,13 +4161,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D16" s="7">
         <v>13</v>
@@ -4196,13 +4175,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B17" s="5">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D17" s="7">
         <v>14</v>
@@ -4210,13 +4189,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B18" s="5">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D18" s="7">
         <v>15</v>
@@ -4224,13 +4203,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B19" s="5">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D19" s="7">
         <v>16</v>
@@ -4238,13 +4217,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D20" s="7">
         <v>17</v>
@@ -4252,13 +4231,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B21" s="5">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D21" s="7">
         <v>18</v>
@@ -4266,13 +4245,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B22" s="5">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D22" s="7">
         <v>19</v>
@@ -4280,13 +4259,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B23" s="5">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D23" s="7">
         <v>20</v>
@@ -4294,13 +4273,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B24" s="5">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D24" s="7">
         <v>21</v>
@@ -4308,13 +4287,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B25" s="5">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D25" s="7">
         <v>22</v>
@@ -4322,13 +4301,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B26" s="5">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D26" s="7">
         <v>23</v>
@@ -4336,13 +4315,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B27" s="5">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D27" s="7">
         <v>24</v>
@@ -4350,13 +4329,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D28" s="7">
         <v>25</v>
@@ -4364,13 +4343,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B29" s="5">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D29" s="7">
         <v>26</v>
@@ -4378,13 +4357,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B30" s="5">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D30" s="7">
         <v>27</v>
@@ -4392,13 +4371,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B31" s="5">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D31" s="7">
         <v>28</v>
@@ -4406,13 +4385,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B32" s="5">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D32" s="7">
         <v>29</v>
@@ -4420,13 +4399,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B33" s="5">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D33" s="7">
         <v>30</v>
@@ -4434,13 +4413,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B34" s="5">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D34" s="7">
         <v>31</v>
@@ -4448,13 +4427,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B35" s="5">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D35" s="7">
         <v>32</v>
@@ -4462,13 +4441,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B36" s="5">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D36" s="7">
         <v>33</v>
@@ -4476,13 +4455,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B37" s="5">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D37" s="7">
         <v>34</v>
@@ -4490,13 +4469,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B38" s="5">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D38" s="7">
         <v>35</v>
@@ -4504,13 +4483,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B39" s="5">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D39" s="7">
         <v>36</v>
@@ -4518,13 +4497,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B40" s="5">
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D40" s="7">
         <v>37</v>
@@ -4532,13 +4511,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B41" s="5">
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D41" s="7">
         <v>38</v>
@@ -4546,13 +4525,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B42" s="5">
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D42" s="7">
         <v>39</v>
@@ -4560,13 +4539,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B43" s="5">
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D43" s="7">
         <v>40</v>
@@ -4574,13 +4553,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B44" s="5">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D44" s="7">
         <v>41</v>
@@ -4588,13 +4567,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B45" s="5">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D45" s="7">
         <v>42</v>
@@ -4602,13 +4581,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B46" s="5">
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D46" s="7">
         <v>43</v>
@@ -4616,13 +4595,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B47" s="5">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D47" s="7">
         <v>44</v>
@@ -4630,13 +4609,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B48" s="5">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D48" s="7">
         <v>45</v>
@@ -4644,13 +4623,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B49" s="5">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D49" s="7">
         <v>46</v>
@@ -4658,13 +4637,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B50" s="5">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D50" s="7">
         <v>47</v>
@@ -4672,13 +4651,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B51" s="5">
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D51" s="7">
         <v>48</v>
@@ -4686,13 +4665,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B52" s="5">
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D52" s="7">
         <v>49</v>
@@ -4700,13 +4679,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B53" s="5">
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D53" s="7">
         <v>50</v>
@@ -4714,13 +4693,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B54" s="5">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D54" s="7">
         <v>51</v>
@@ -4728,13 +4707,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B55" s="5">
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D55" s="7">
         <v>52</v>
@@ -4742,13 +4721,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B56" s="5">
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D56" s="7">
         <v>53</v>
@@ -4756,13 +4735,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B57" s="5">
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D57" s="7">
         <v>54</v>
@@ -4770,13 +4749,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B58" s="5">
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D58" s="7">
         <v>55</v>
@@ -4784,13 +4763,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B59" s="5">
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D59" s="7">
         <v>56</v>
@@ -4798,13 +4777,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B60" s="5">
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D60" s="7">
         <v>57</v>
@@ -4812,13 +4791,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B61" s="5">
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D61" s="7">
         <v>58</v>
@@ -4826,13 +4805,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B62" s="6">
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D62" s="7">
         <v>59</v>
@@ -4907,217 +4886,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="50.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:F4"/>
-  </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5130,72 +4902,72 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -5203,7 +4975,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3">
         <v>101</v>
@@ -5212,13 +4984,13 @@
         <v>102</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H3" s="3">
         <v>111</v>
@@ -5227,10 +4999,10 @@
         <v>112</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -5238,7 +5010,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3">
         <v>201</v>
@@ -5247,13 +5019,13 @@
         <v>202</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H4" s="3">
         <v>211</v>
@@ -5262,10 +5034,10 @@
         <v>212</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\projs\github\xresloader\xresloader\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github\xresloader\xresloader\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工具命令行设计" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="193">
   <si>
     <t>角色ID</t>
   </si>
@@ -975,10 +975,6 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>CostType@cost_type</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EN_CT_MONEY</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
@@ -1002,6 +998,18 @@
   </si>
   <si>
     <t>Id@test_msg_verifier</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostType@cost_type|-100--10|20001-50000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试负值范围验证器</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试正值范围验证器</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -2706,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3285,19 +3293,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="7"/>
+    <col min="5" max="5" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3316,13 +3325,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>179</v>
@@ -3330,7 +3339,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -3340,7 +3349,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -3355,7 +3364,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -3370,7 +3379,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -3385,7 +3394,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -3400,7 +3409,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -3415,7 +3424,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -3430,7 +3439,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -3445,7 +3454,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -3460,7 +3469,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -3475,7 +3484,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -3490,7 +3499,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -3505,7 +3514,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
@@ -3520,7 +3529,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
@@ -3535,7 +3544,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
@@ -3550,7 +3559,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="3">
         <v>16</v>
@@ -3565,7 +3574,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -3580,7 +3589,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="3">
         <v>18</v>
@@ -3595,7 +3604,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="3">
         <v>19</v>
@@ -3610,7 +3619,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="3">
         <v>20</v>
@@ -3625,7 +3634,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="3">
         <v>21</v>
@@ -3640,7 +3649,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" s="3">
         <v>22</v>
@@ -3655,7 +3664,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="3">
         <v>23</v>
@@ -3670,7 +3679,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B26" s="3">
         <v>24</v>
@@ -3685,7 +3694,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" s="3">
         <v>25</v>
@@ -3700,7 +3709,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="3">
         <v>26</v>
@@ -3715,7 +3724,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="3">
         <v>27</v>
@@ -3730,7 +3739,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="3">
         <v>28</v>
@@ -3745,7 +3754,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="3">
         <v>29</v>
@@ -3760,7 +3769,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="3">
         <v>30</v>
@@ -3773,9 +3782,9 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" s="3">
         <v>31</v>
@@ -3788,9 +3797,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B34" s="3">
         <v>32</v>
@@ -3803,9 +3812,9 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" s="3">
         <v>33</v>
@@ -3818,9 +3827,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B36" s="3">
         <v>34</v>
@@ -3833,9 +3842,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37" s="3">
         <v>35</v>
@@ -3848,9 +3857,9 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="3">
         <v>36</v>
@@ -3863,9 +3872,9 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" s="3">
         <v>37</v>
@@ -3878,9 +3887,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B40" s="3">
         <v>38</v>
@@ -3893,9 +3902,9 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B41" s="3">
         <v>39</v>
@@ -3908,9 +3917,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B42" s="4">
         <v>40</v>
@@ -3921,6 +3930,42 @@
       <c r="D42" s="4">
         <f t="shared" si="0"/>
         <v>1950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="4">
+        <v>41</v>
+      </c>
+      <c r="C43" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D43" s="4">
+        <f>(B43-1)*50</f>
+        <v>2000</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="4">
+        <v>42</v>
+      </c>
+      <c r="C44" s="4">
+        <v>20001</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" ref="D44" si="1">(B44-1)*50</f>
+        <v>2050</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3940,7 +3985,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3967,7 +4012,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>180</v>
@@ -3981,7 +4026,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -3993,13 +4038,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -4007,13 +4052,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="7">
         <v>2</v>
@@ -4021,13 +4066,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -4035,13 +4080,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="7">
         <v>4</v>
@@ -4049,13 +4094,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="7">
         <v>5</v>
@@ -4063,13 +4108,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="7">
         <v>6</v>
@@ -4077,13 +4122,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="7">
         <v>7</v>
@@ -4091,13 +4136,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" s="7">
         <v>8</v>
@@ -4105,13 +4150,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="7">
         <v>9</v>
@@ -4119,13 +4164,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="7">
         <v>10</v>
@@ -4133,13 +4178,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="5">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="7">
         <v>11</v>
@@ -4147,13 +4192,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="5">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="7">
         <v>12</v>
@@ -4161,13 +4206,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="7">
         <v>13</v>
@@ -4175,13 +4220,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="5">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="7">
         <v>14</v>
@@ -4189,13 +4234,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="5">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" s="7">
         <v>15</v>
@@ -4203,13 +4248,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="5">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" s="7">
         <v>16</v>
@@ -4217,13 +4262,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="7">
         <v>17</v>
@@ -4231,13 +4276,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="5">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="7">
         <v>18</v>
@@ -4245,13 +4290,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="5">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="7">
         <v>19</v>
@@ -4259,13 +4304,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="5">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="7">
         <v>20</v>
@@ -4273,13 +4318,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="5">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="7">
         <v>21</v>
@@ -4287,13 +4332,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="5">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" s="7">
         <v>22</v>
@@ -4301,13 +4346,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="5">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D26" s="7">
         <v>23</v>
@@ -4315,13 +4360,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="5">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="7">
         <v>24</v>
@@ -4329,13 +4374,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" s="5">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="7">
         <v>25</v>
@@ -4343,13 +4388,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="5">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D29" s="7">
         <v>26</v>
@@ -4357,13 +4402,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="5">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="7">
         <v>27</v>
@@ -4371,13 +4416,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="5">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31" s="7">
         <v>28</v>
@@ -4385,13 +4430,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" s="7">
         <v>29</v>
@@ -4399,13 +4444,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="5">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D33" s="7">
         <v>30</v>
@@ -4413,13 +4458,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" s="5">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D34" s="7">
         <v>31</v>
@@ -4427,13 +4472,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35" s="5">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D35" s="7">
         <v>32</v>
@@ -4441,13 +4486,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B36" s="5">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" s="7">
         <v>33</v>
@@ -4455,13 +4500,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B37" s="5">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" s="7">
         <v>34</v>
@@ -4469,13 +4514,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38" s="5">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38" s="7">
         <v>35</v>
@@ -4483,13 +4528,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B39" s="5">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D39" s="7">
         <v>36</v>
@@ -4497,13 +4542,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" s="5">
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" s="7">
         <v>37</v>
@@ -4511,13 +4556,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" s="5">
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" s="7">
         <v>38</v>
@@ -4525,13 +4570,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B42" s="5">
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D42" s="7">
         <v>39</v>
@@ -4539,13 +4584,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B43" s="5">
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D43" s="7">
         <v>40</v>
@@ -4553,13 +4598,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B44" s="5">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D44" s="7">
         <v>41</v>
@@ -4567,13 +4612,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="5">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D45" s="7">
         <v>42</v>
@@ -4581,13 +4626,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46" s="5">
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D46" s="7">
         <v>43</v>
@@ -4595,13 +4640,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" s="5">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D47" s="7">
         <v>44</v>
@@ -4609,13 +4654,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="5">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48" s="7">
         <v>45</v>
@@ -4623,13 +4668,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="5">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D49" s="7">
         <v>46</v>
@@ -4637,13 +4682,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" s="5">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50" s="7">
         <v>47</v>
@@ -4651,13 +4696,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B51" s="5">
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D51" s="7">
         <v>48</v>
@@ -4665,13 +4710,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" s="5">
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D52" s="7">
         <v>49</v>
@@ -4679,13 +4724,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" s="5">
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D53" s="7">
         <v>50</v>
@@ -4693,13 +4738,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B54" s="5">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D54" s="7">
         <v>51</v>
@@ -4707,13 +4752,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" s="5">
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D55" s="7">
         <v>52</v>
@@ -4721,13 +4766,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B56" s="5">
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D56" s="7">
         <v>53</v>
@@ -4735,13 +4780,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B57" s="5">
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57" s="7">
         <v>54</v>
@@ -4749,13 +4794,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58" s="5">
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="7">
         <v>55</v>
@@ -4763,13 +4808,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59" s="5">
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="7">
         <v>56</v>
@@ -4777,13 +4822,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="5">
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="7">
         <v>57</v>
@@ -4791,13 +4836,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B61" s="5">
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="7">
         <v>58</v>
@@ -4805,13 +4850,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="6">
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="7">
         <v>59</v>

--- a/sample/资源转换示例.xlsx
+++ b/sample/资源转换示例.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github\xresloader\xresloader\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE3A567-7886-4EF2-88F6-C2D2F5C99A34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10170" activeTab="4"/>
+    <workbookView xWindow="6780" yWindow="2070" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工具命令行设计" sheetId="6" r:id="rId1"/>
@@ -21,12 +22,20 @@
     <sheet name="macro" sheetId="5" r:id="rId7"/>
     <sheet name="arr_in_arr" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="194">
   <si>
     <t>角色ID</t>
   </si>
@@ -1012,11 +1021,15 @@
     <t>测试正值范围验证器</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>测试项-C</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -1773,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1798,16 +1811,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1816,9 +1820,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1849,22 +1850,13 @@
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1897,10 +1889,13 @@
     <xf numFmtId="0" fontId="33" fillId="10" borderId="10" xfId="66" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1914,36 +1909,36 @@
     </xf>
   </cellXfs>
   <cellStyles count="67">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - 着色 1" xfId="7" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="8" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="9" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 着色 4" xfId="10" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 着色 5" xfId="11" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 着色 6" xfId="12" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="16"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="17"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="18"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% - 着色 1" xfId="19" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 着色 2" xfId="20" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 着色 3" xfId="21" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 着色 4" xfId="22" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 着色 5" xfId="23" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 着色 6" xfId="24" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="27"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="28"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="60% - 着色 1" xfId="31" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 着色 2" xfId="32" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 着色 3" xfId="33" builtinId="40" customBuiltin="1"/>
@@ -1965,12 +1960,12 @@
     <cellStyle name="解释性文本" xfId="47" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="48" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="49" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="51"/>
-    <cellStyle name="强调文字颜色 3" xfId="52"/>
-    <cellStyle name="强调文字颜色 4" xfId="53"/>
-    <cellStyle name="强调文字颜色 5" xfId="54"/>
-    <cellStyle name="强调文字颜色 6" xfId="55"/>
+    <cellStyle name="强调文字颜色 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="53" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="54" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="55" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="适中" xfId="56" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="57" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="58" builtinId="20" customBuiltin="1"/>
@@ -2325,7 +2320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2334,161 +2329,161 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="18"/>
+    <col min="1" max="1" width="23.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2504,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2515,11 +2510,11 @@
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="50.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21.875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
@@ -2540,163 +2535,163 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+      <c r="A5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
+      <c r="A6" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
+      <c r="A7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+      <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
+      <c r="A10" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
+      <c r="A11" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
+      <c r="A12" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
+      <c r="A13" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="30" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2711,7 +2706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2774,38 +2769,38 @@
       <c r="G2" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>10001</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G3">
@@ -2817,26 +2812,26 @@
       <c r="I3">
         <v>101</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="27">
         <v>41925</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="29" t="str">
+      <c r="L3" s="22" t="str">
         <f t="shared" ref="L3:M6" si="0">E3</f>
         <v>欧若拉</v>
       </c>
-      <c r="M3" s="29" t="str">
+      <c r="M3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>小魔女</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>10002</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>39</v>
       </c>
       <c r="C4" s="3"/>
@@ -2844,10 +2839,10 @@
         <f>D3*2</f>
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G4">
@@ -2860,26 +2855,26 @@
         <f>I3+100</f>
         <v>201</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="27">
         <v>41926</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="29" t="str">
+      <c r="L4" s="22" t="str">
         <f t="shared" si="0"/>
         <v>杰克</v>
       </c>
-      <c r="M4" s="29" t="str">
+      <c r="M4" s="22" t="str">
         <f t="shared" si="0"/>
         <v>海盗王子</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>10003</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>85</v>
       </c>
       <c r="C5" s="3"/>
@@ -2887,42 +2882,42 @@
         <f>D4*2</f>
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G5">
         <v>71</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="21" t="s">
         <v>109</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I6" si="1">I4+100</f>
         <v>301</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="27">
         <v>41927</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="29" t="str">
+      <c r="L5" s="22" t="str">
         <f t="shared" si="0"/>
         <v>库拉</v>
       </c>
-      <c r="M5" s="29" t="str">
+      <c r="M5" s="22" t="str">
         <f t="shared" si="0"/>
         <v>喵少年</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>10004</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>122</v>
       </c>
       <c r="C6" s="3"/>
@@ -2930,117 +2925,117 @@
         <f>D5*2</f>
         <v>8</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G6">
         <v>81</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="21" t="s">
         <v>110</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
         <v>401</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="29">
         <v>0.79918981481481488</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="29" t="str">
+      <c r="L6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>莫瑞茨</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>10005</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <f>B6*1.5</f>
         <v>183</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>99999</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G8">
         <v>91</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="21" t="s">
         <v>111</v>
       </c>
       <c r="I8">
         <f>I6+100</f>
         <v>501</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="28">
         <v>0.38252314814814814</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="29" t="str">
+      <c r="L8" s="22" t="str">
         <f>E8</f>
         <v>爱丽丝</v>
       </c>
-      <c r="M8" s="29"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>10006</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <f>FLOOR(B8*1.5, 1)</f>
         <v>274</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>999</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G9">
         <v>101</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="21" t="s">
         <v>112</v>
       </c>
       <c r="I9">
         <f>I8+100</f>
         <v>601</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="25">
         <v>41932.826967592591</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="29" t="str">
+      <c r="L9" s="22" t="str">
         <f>E9</f>
         <v>都玛西亚</v>
       </c>
-      <c r="M9" s="29"/>
+      <c r="M9" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -3050,7 +3045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3088,196 +3083,196 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
+      <c r="A6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
+      <c r="A7" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+      <c r="A8" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="39" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="32" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
+      <c r="A10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
+      <c r="A11" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
+      <c r="A12" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
+      <c r="A13" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
+      <c r="A14" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="37" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="30" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3292,10 +3287,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -3324,13 +3319,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="33" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="33" t="s">
         <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3971,8 +3966,8 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -3981,7 +3976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4011,13 +4006,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="33" t="s">
         <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="33" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4025,7 +4020,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B3" s="5">
@@ -4037,7 +4032,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B4" s="5">
@@ -4051,7 +4046,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B5" s="5">
@@ -4065,7 +4060,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B6" s="5">
@@ -4079,7 +4074,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B7" s="5">
@@ -4093,7 +4088,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B8" s="5">
@@ -4107,7 +4102,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B9" s="5">
@@ -4121,7 +4116,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B10" s="5">
@@ -4135,7 +4130,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B11" s="5">
@@ -4149,7 +4144,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="5">
@@ -4163,7 +4158,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B13" s="5">
@@ -4177,7 +4172,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B14" s="5">
@@ -4191,7 +4186,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B15" s="5">
@@ -4205,7 +4200,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B16" s="5">
@@ -4219,7 +4214,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B17" s="5">
@@ -4233,7 +4228,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B18" s="5">
@@ -4247,7 +4242,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B19" s="5">
@@ -4261,7 +4256,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B20" s="5">
@@ -4275,7 +4270,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="5">
@@ -4289,7 +4284,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B22" s="5">
@@ -4303,7 +4298,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="5">
@@ -4317,7 +4312,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B24" s="5">
@@ -4331,7 +4326,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B25" s="5">
@@ -4345,7 +4340,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B26" s="5">
@@ -4359,7 +4354,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B27" s="5">
@@ -4373,7 +4368,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B28" s="5">
@@ -4387,7 +4382,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B29" s="5">
@@ -4401,7 +4396,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B30" s="5">
@@ -4415,7 +4410,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B31" s="5">
@@ -4429,7 +4424,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B32" s="5">
@@ -4443,7 +4438,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B33" s="5">
@@ -4457,7 +4452,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B34" s="5">
@@ -4471,7 +4466,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B35" s="5">
@@ -4485,7 +4480,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B36" s="5">
@@ -4499,7 +4494,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B37" s="5">
@@ -4513,7 +4508,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B38" s="5">
@@ -4527,7 +4522,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B39" s="5">
@@ -4541,7 +4536,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B40" s="5">
@@ -4555,7 +4550,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B41" s="5">
@@ -4569,7 +4564,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B42" s="5">
@@ -4583,7 +4578,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B43" s="5">
@@ -4597,7 +4592,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B44" s="5">
@@ -4611,7 +4606,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B45" s="5">
@@ -4625,7 +4620,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B46" s="5">
@@ -4639,7 +4634,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B47" s="5">
@@ -4653,7 +4648,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B48" s="5">
@@ -4667,7 +4662,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B49" s="5">
@@ -4681,7 +4676,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B50" s="5">
@@ -4695,7 +4690,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B51" s="5">
@@ -4709,7 +4704,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B52" s="5">
@@ -4723,7 +4718,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B53" s="5">
@@ -4737,7 +4732,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B54" s="5">
@@ -4751,7 +4746,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B55" s="5">
@@ -4765,7 +4760,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B56" s="5">
@@ -4779,7 +4774,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B57" s="5">
@@ -4793,7 +4788,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B58" s="5">
@@ -4807,7 +4802,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B59" s="5">
@@ -4821,7 +4816,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B60" s="5">
@@ -4835,7 +4830,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B61" s="5">
@@ -4849,7 +4844,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B62" s="6">
@@ -4865,8 +4860,8 @@
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4874,7 +4869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4892,7 +4887,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B2">
@@ -4900,7 +4895,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B3">
@@ -4908,18 +4903,18 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>10001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>10101</v>
       </c>
     </row>
@@ -4930,11 +4925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5016,10 +5011,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>10001</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="31" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="3">
@@ -5028,13 +5023,13 @@
       <c r="D3" s="3">
         <v>102</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="31" t="s">
         <v>173</v>
       </c>
       <c r="H3" s="3">
@@ -5043,18 +5038,18 @@
       <c r="I3" s="3">
         <v>112</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="31" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>10002</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>174</v>
       </c>
       <c r="C4" s="3">
@@ -5063,13 +5058,13 @@
       <c r="D4" s="3">
         <v>202</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="31" t="s">
         <v>175</v>
       </c>
       <c r="H4" s="3">
@@ -5078,12 +5073,37 @@
       <c r="I4" s="3">
         <v>212</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="31" t="s">
         <v>165</v>
       </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="3">
+        <v>301</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>311</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
